--- a/RTNValidation.xlsx
+++ b/RTNValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11E97B6-9E93-471B-90E9-11EBEFC5493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11202FDB-D2F9-4682-8D6F-7F2F56C979D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27435" yWindow="4275" windowWidth="24525" windowHeight="14010" xr2:uid="{78285BDD-1346-4E43-A1F1-26A5A534603C}"/>
+    <workbookView xWindow="-33890" yWindow="380" windowWidth="31880" windowHeight="14900" xr2:uid="{78285BDD-1346-4E43-A1F1-26A5A534603C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>RTN</t>
   </si>
@@ -48,31 +48,31 @@
     <t>ResultErrMsg</t>
   </si>
   <si>
-    <t>011000015</t>
-  </si>
-  <si>
-    <t>011000536</t>
-  </si>
-  <si>
     <t>ResultErrCode</t>
   </si>
   <si>
     <t>011002877</t>
   </si>
   <si>
+    <t>EAST WEST BANK</t>
+  </si>
+  <si>
+    <t>011001962</t>
+  </si>
+  <si>
+    <t>CATHAY BANK</t>
+  </si>
+  <si>
+    <t>011103093</t>
+  </si>
+  <si>
+    <t>TD BANK NA</t>
+  </si>
+  <si>
     <t>No Error</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>FEDERAL RESERVE BANK</t>
-  </si>
-  <si>
-    <t>FEDERAL HOME LOAN BK BOST</t>
-  </si>
-  <si>
-    <t>EAST WEST BANK</t>
   </si>
 </sst>
 </file>
@@ -446,19 +446,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="47.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.53515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="47.84375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="17.765625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="22.3046875" collapsed="true"/>
+    <col min="5" max="16384" style="1" width="9.15234375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,49 +469,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +531,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RTNValidation.xlsx
+++ b/RTNValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>RTN</t>
   </si>

--- a/RTNValidation.xlsx
+++ b/RTNValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>RTN</t>
   </si>
